--- a/variant_33/Задание 18/18вар1и2.xlsx
+++ b/variant_33/Задание 18/18вар1и2.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Слава\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,7 +147,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,23 +324,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1">
         <v>43</v>
       </c>
@@ -387,7 +381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>63</v>
       </c>
@@ -425,7 +419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>24</v>
       </c>
@@ -463,7 +457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>49</v>
       </c>
@@ -501,7 +495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>8</v>
       </c>
@@ -539,7 +533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>33</v>
       </c>
@@ -577,7 +571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>77</v>
       </c>
@@ -615,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>17</v>
       </c>
@@ -653,7 +647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>90</v>
       </c>
@@ -691,7 +685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
@@ -729,7 +723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>59</v>
       </c>
@@ -767,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>57</v>
       </c>
@@ -802,6 +796,612 @@
         <v>18</v>
       </c>
       <c r="L12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <f t="shared" ref="A14:A24" si="0">A1+MIN(B14,A15)</f>
+        <v>539</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B24" si="1">B1+MIN(C14,B15)</f>
+        <v>496</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C24" si="2">C1+MIN(D14,C15)</f>
+        <v>480</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D24" si="3">D1+MIN(E14,D15)</f>
+        <v>443</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E24" si="4">E1+MIN(F14,E15)</f>
+        <v>405</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F24" si="5">F1+MIN(G14,F15)</f>
+        <v>375</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G24" si="6">G1+MIN(H14,G15)</f>
+        <v>370</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H24" si="7">H1+MIN(I14,H15)</f>
+        <v>391</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I24" si="8">I1+MIN(J14,I15)</f>
+        <v>330</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J24" si="9">J1+MIN(K14,J15)</f>
+        <v>317</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K23" si="10">K1+MIN(L14,K15)</f>
+        <v>218</v>
+      </c>
+      <c r="L14">
+        <f>L1+L15</f>
+        <v>189</v>
+      </c>
+      <c r="N14">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>572</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>487</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>390</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>320</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>333</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>324</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>267</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="10"/>
+        <v>217</v>
+      </c>
+      <c r="L15">
+        <f>L2+L16</f>
+        <v>187</v>
+      </c>
+      <c r="N15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>487</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>563</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>524</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>418</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>243</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>310</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>242</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="10"/>
+        <v>202</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L14:L23" si="11">L3+L17</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>521</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>458</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>377</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>347</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>338</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>268</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>218</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="9"/>
+        <v>174</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="10"/>
+        <v>201</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="11"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>366</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>267</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>207</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>166</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="10"/>
+        <v>193</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>373</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>416</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>432</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>347</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>138</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="11"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>402</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>322</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>337</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>291</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>208</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>272</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>334</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>236</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>177</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>235</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>174</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="10"/>
+        <v>153</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>403</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>359</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>262</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>234</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>182</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>436</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>358</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>326</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>227</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="K24">
+        <f>K11+MIN(L24,K25)</f>
+        <v>41</v>
+      </c>
+      <c r="L24">
+        <f>L11+L25</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <f t="shared" ref="A25:J25" si="12">A12+B25</f>
+        <v>706</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="12"/>
+        <v>649</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="12"/>
+        <v>613</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="12"/>
+        <v>435</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="12"/>
+        <v>375</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="12"/>
+        <v>299</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="12"/>
+        <v>184</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="K25">
+        <f>K12+L25</f>
+        <v>37</v>
+      </c>
+      <c r="L25">
+        <f>L12</f>
         <v>19</v>
       </c>
     </row>
